--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3626.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3626.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.325443241177534</v>
+        <v>1.666286706924438</v>
       </c>
       <c r="B1">
-        <v>2.227400138933609</v>
+        <v>2.425266981124878</v>
       </c>
       <c r="C1">
-        <v>2.640968200901017</v>
+        <v>3.477336645126343</v>
       </c>
       <c r="D1">
-        <v>3.009670611495765</v>
+        <v>1.288235306739807</v>
       </c>
       <c r="E1">
-        <v>1.761579194112415</v>
+        <v>0.8190047144889832</v>
       </c>
     </row>
   </sheetData>
